--- a/InputData/elec/FPCbS/Flexibility Points Consumed by Source.xlsx
+++ b/InputData/elec/FPCbS/Flexibility Points Consumed by Source.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.4.2-us-wipC\InputData\elec\FPCbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\FPCbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>FPCbS Flexibility Points Consumed by Source</t>
   </si>
@@ -197,9 +197,6 @@
     <t>offshore wind</t>
   </si>
   <si>
-    <t>FP</t>
-  </si>
-  <si>
     <t>hard coal</t>
   </si>
   <si>
@@ -210,6 +207,18 @@
   </si>
   <si>
     <t>As this is part of the way we define the concept of "flexibility</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>FP (flexibility points/MW)</t>
   </si>
 </sst>
 </file>
@@ -253,12 +262,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,17 +623,17 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -755,23 +767,27 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
-        <v>49</v>
+    <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -871,6 +887,30 @@
       </c>
       <c r="B14">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
